--- a/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-42,16%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,51%</t>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>105,17%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57,59%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,99</t>
+          <t>-1,67; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,19</t>
+          <t>-2,45; 3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 2,51</t>
+          <t>-1,08; 5,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 172,68</t>
+          <t>-3,07; 8,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,29; 65,61</t>
+          <t>-47,66; 582,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,17; 126,37</t>
+          <t>-76,75; 415,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-42,04; 877,87</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-37,06; 304,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>138,69%</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>13,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-15,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,31</t>
+          <t>-2,23; 8,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,38</t>
+          <t>-3,71; 4,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,03</t>
+          <t>-4,51; 3,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 534,23</t>
+          <t>-5,79; 7,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 230,52</t>
+          <t>-36,07; 381,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 176,83</t>
+          <t>-72,56; 390,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-77,33; 226,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-74,23; 404,87</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,02%</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-78,27%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 7,18</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 0,42</t>
+          <t>-30,34; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 16,38</t>
+          <t>0,0; 20,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-14,39; 0,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,56%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54,87%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,23</t>
+          <t>-0,25; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,37</t>
+          <t>-3,52; 1,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,29</t>
+          <t>-1,06; 3,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 179,64</t>
+          <t>-2,09; 5,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,33; 20,1</t>
+          <t>-9,3; 324,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,96; 98,19</t>
+          <t>-70,87; 83,88</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,0; 279,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-31,89; 182,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>94,67%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>105,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>57,59%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.153037853872148</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4033344530123814</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.354280346015257</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.679501585155254</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.415232832806204</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2102536231566145</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.067887609574304</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6953018673217771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 6,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 5,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 8,78</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-47,66; 582,51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-76,75; 415,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-42,04; 877,87</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-37,06; 304,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6303708756606065</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.030178820491728</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.101235105389377</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.998147706930518</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4553725460199282</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7261864516458817</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3873555595965456</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2980524598087202</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.21415991811472</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.680794699695544</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.037762239038853</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.231965630462756</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>8.099399449988825</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.63679971853837</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>9.582987354885455</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.401920202900414</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>59,62%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,71%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-15,7%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 8,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 4,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 3,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 7,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-36,07; 381,92</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-72,56; 390,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-77,33; 226,77</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-74,23; 404,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.760563161470469</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4013050461856585</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.8021084144037947</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.184539635313422</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.8799394954414237</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1117984395045528</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1788530704873654</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4562292177357507</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-9,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.21228463037473</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.800933055835216</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.683338608971022</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.124614506669823</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3068321736923</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7283440820694776</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7993477350379806</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7349945830163929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-30,34; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 20,13</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,39; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.913849204042831</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.693028387957185</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.789625468335407</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.208176003018972</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.441466702561366</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.157828916946407</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.128140420565081</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.687667994997708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>84,63%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-20,41%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>54,87%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40,57%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.29574463034369</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.49903131877067</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.181833323025153</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.878123514777371</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 5,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 1,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 3,95</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 5,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-9,3; 324,72</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-70,87; 83,88</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-29,0; 279,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,89; 182,99</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-34.6116300889846</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.59195352844558</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.22895149272622</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.97943994936466</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.789086669848603</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.760106692393887</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.328350749026866</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.445399814682921</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.186102991654034</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.2158551852196872</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4520545950150029</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5087620543490288</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4261864952942746</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.670491109215157</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.568853887831751</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.461897449401288</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.00042608215360681</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6987685411876102</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.358261475497433</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.286258975673402</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.967741896455674</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.583852449980733</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.867017221217905</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.124960710463426</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.947992931701101</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8613448195321479</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.533320912129831</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.00468350727864</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1013,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
